--- a/Экономика/1.1. Определение трудоемкости разработки ПП.xlsx
+++ b/Экономика/1.1. Определение трудоемкости разработки ПП.xlsx
@@ -177,6 +177,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -186,15 +187,15 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="ru-RU" sz="1400" i="1">
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                          <a:rPr lang="ru-RU" sz="1400" i="1" u="none">
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
                       <m:e>
                         <m:r>
-                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
+                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                             <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -203,7 +204,7 @@
                       </m:e>
                       <m:sub>
                         <m:r>
-                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
+                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                             <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -212,7 +213,7 @@
                       </m:sub>
                     </m:sSub>
                     <m:r>
-                      <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
+                      <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                         <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
                         <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                       </a:rPr>
@@ -221,7 +222,20 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="ru-RU" sz="1400" i="1">
+                          <a:rPr lang="ru-RU" sz="1400" i="1" u="none">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math"/>
+                            <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -230,11 +244,12 @@
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
+                          <m:t>Т</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -243,26 +258,12 @@
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>Т</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
                           <m:t>оа</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
                     <m:r>
-                      <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
+                      <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                         <a:solidFill>
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
@@ -276,7 +277,20 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="ru-RU" sz="1400" i="1">
+                          <a:rPr lang="ru-RU" sz="1400" i="1" u="none">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math"/>
+                            <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -285,11 +299,12 @@
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
+                          <m:t>Т</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -298,26 +313,12 @@
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>Т</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
                           <m:t>бс</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
                     <m:r>
-                      <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
+                      <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                         <a:solidFill>
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
@@ -331,7 +332,20 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="ru-RU" sz="1400" i="1">
+                          <a:rPr lang="ru-RU" sz="1400" i="1" u="none">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math"/>
+                            <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -340,11 +354,12 @@
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
+                          <m:t>Т</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -353,26 +368,12 @@
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>Т</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
                           <m:t>п</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
                     <m:r>
-                      <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
+                      <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                         <a:solidFill>
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
@@ -386,7 +387,20 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="ru-RU" sz="1400" i="1">
+                          <a:rPr lang="ru-RU" sz="1400" i="1" u="none">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math"/>
+                            <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -395,11 +409,12 @@
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
+                          <m:t>Т</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -408,26 +423,12 @@
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>Т</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
                           <m:t>отл</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
                     <m:r>
-                      <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
+                      <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                         <a:solidFill>
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
@@ -441,7 +442,20 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="ru-RU" sz="1400" i="1">
+                          <a:rPr lang="ru-RU" sz="1400" i="1" u="none">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math"/>
+                            <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -450,11 +464,12 @@
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
+                          <m:t>Т</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -463,26 +478,12 @@
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>Т</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
                           <m:t>др</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
                     <m:r>
-                      <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
+                      <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none">
                         <a:solidFill>
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
@@ -496,7 +497,20 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="ru-RU" sz="1400" i="1">
+                          <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math"/>
+                            <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -505,11 +519,12 @@
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
+                          <m:t>Т</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -518,20 +533,6 @@
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>Т</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="ru-RU" sz="1400" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
                           <m:t>до</m:t>
                         </m:r>
                       </m:sub>
@@ -539,7 +540,7 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="ru-RU" sz="1400">
+              <a:endParaRPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
                 <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
               </a:endParaRPr>
@@ -583,15 +584,30 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1400" b="0" i="0">
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
                   <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>Т_рз=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1400" b="0" i="0">
+                <a:t>Т</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
+                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>рз=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -600,9 +616,153 @@
                   <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Т_оа+Т_бс+Т_п+Т_отл+Т_др+Т_до</a:t>
-              </a:r>
-              <a:endParaRPr lang="ru-RU" sz="1400">
+                <a:t>Т</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>оа+Т</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>бс+Т</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>п+Т</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>отл+Т</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>др+Т</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>до</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1400" b="0" i="0" u="none">
                 <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
               </a:endParaRPr>
@@ -658,6 +818,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -701,7 +862,21 @@
                         <a:latin typeface="Cambria Math"/>
                         <a:ea typeface="Cambria Math"/>
                       </a:rPr>
-                      <m:t>∙(1+</m:t>
+                      <m:t>∙(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="0">
+                        <a:latin typeface="Cambria Math"/>
+                        <a:ea typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>1</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                        <a:ea typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1400" b="0" i="1">
@@ -720,7 +895,7 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="ru-RU" sz="1400"/>
+              <a:endParaRPr lang="ru-RU" sz="1400" i="1"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -761,6 +936,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math"/>
@@ -774,7 +950,7 @@
                 </a:rPr>
                 <a:t>∙𝐶∙(1+𝑝)</a:t>
               </a:r>
-              <a:endParaRPr lang="ru-RU" sz="1400"/>
+              <a:endParaRPr lang="ru-RU" sz="1400" i="1"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -827,6 +1003,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -920,7 +1097,10 @@
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
-              <a:endParaRPr lang="ru-RU" sz="1400"/>
+              <a:endParaRPr lang="ru-RU" sz="1400">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -961,6 +1141,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math"/>
@@ -1005,7 +1186,10 @@
                 </a:rPr>
                 <a:t>)</a:t>
               </a:r>
-              <a:endParaRPr lang="ru-RU" sz="1400"/>
+              <a:endParaRPr lang="ru-RU" sz="1400">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1021,8 +1205,8 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1562100" cy="497059"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1058,6 +1242,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1160,7 +1345,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1274,8 +1459,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1562100" cy="497059"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -1311,6 +1496,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1413,7 +1599,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -1527,8 +1713,8 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1562100" cy="497059"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -1564,6 +1750,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1654,7 +1841,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -1756,8 +1943,8 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1562100" cy="497059"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -1793,6 +1980,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1889,7 +2077,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -1991,8 +2179,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1935480" cy="537583"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -2055,7 +2243,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="ru-RU" sz="1400" i="1">
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -2094,7 +2282,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2147,7 +2335,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -2230,6 +2418,171 @@
                 <a:latin typeface="Cambria Math" pitchFamily="18" charset="0"/>
                 <a:ea typeface="Cambria Math" pitchFamily="18" charset="0"/>
               </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="354392"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6766560" y="2533650"/>
+              <a:ext cx="914400" cy="354392"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="+mn-lt"/>
+                </a:rPr>
+                <a:t>Ф</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1300" i="0" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                </a:rPr>
+                <a:t>= </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="ru-RU" sz="1200" i="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="ru-RU" sz="1200" b="0" i="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>3</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="ru-RU" sz="1200" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>3</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6766560" y="2533650"/>
+              <a:ext cx="914400" cy="354392"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="+mn-lt"/>
+                </a:rPr>
+                <a:t>Ф</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1300" i="0" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                </a:rPr>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>3/3</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1200"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2530,7 +2883,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
